--- a/KUPX6AA4.xlsx
+++ b/KUPX6AA4.xlsx
@@ -17,40 +17,40 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Gestion de Projets (KUPX6AA4)   ( AA)</t>
+  </si>
+  <si>
+    <t>KUPX6AA4</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_PROJET</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>Gestion de Projets (KUPX6AA4) /CC</t>
+  </si>
+  <si>
     <t>jeudi</t>
-  </si>
-  <si>
-    <t>Gestion de Projets (KUPX6AA4)   ( AA)</t>
-  </si>
-  <si>
-    <t>KUPX6AA4</t>
-  </si>
-  <si>
-    <t>7:45</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_PROJET</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>lundi</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>Gestion de Projets (KUPX6AA4) /CC</t>
-  </si>
-  <si>
-    <t>dimanche</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44966.0</v>
+        <v>46062.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -167,7 +167,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44970.0</v>
+        <v>46066.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>8</v>
@@ -229,7 +229,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44973.0</v>
+        <v>46069.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>1</v>
@@ -291,7 +291,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>44980.0</v>
+        <v>46076.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>1</v>
@@ -353,7 +353,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>8</v>
@@ -392,7 +392,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>12</v>
